--- a/docentes/Vargas Olvera Francisco Eduardo - Estadisticos 2020.xlsx
+++ b/docentes/Vargas Olvera Francisco Eduardo - Estadisticos 2020.xlsx
@@ -883,7 +883,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -906,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -929,7 +929,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -952,7 +952,7 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -975,7 +975,7 @@
         <v>10</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -998,7 +998,7 @@
         <v>10</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Vargas Olvera Francisco Eduardo - Estadisticos 2020.xlsx
+++ b/docentes/Vargas Olvera Francisco Eduardo - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
   <si>
     <t>Mat</t>
   </si>
@@ -74,54 +74,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>CARDENAS</t>
-  </si>
-  <si>
-    <t>ESPIRITU</t>
-  </si>
-  <si>
-    <t>MAZAHUA</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>TZANAHUA</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>AMADOR</t>
-  </si>
-  <si>
-    <t>TEQUIHUATLE</t>
-  </si>
-  <si>
-    <t>TEXOCO</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>KEVIN HONAM</t>
-  </si>
-  <si>
-    <t>ALEJANDRO</t>
-  </si>
-  <si>
-    <t>OCTAVIO</t>
-  </si>
-  <si>
-    <t>LUIS ALEJANDRO</t>
-  </si>
-  <si>
-    <t>XIMENA</t>
-  </si>
-  <si>
-    <t>DIANA ARELI</t>
   </si>
 </sst>
 </file>
@@ -830,7 +782,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -863,144 +815,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>19330051920312</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>20330051920011</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>20330051920021</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>20330051920027</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>20330051920030</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>20330051920033</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Vargas Olvera Francisco Eduardo - Estadisticos 2020.xlsx
+++ b/docentes/Vargas Olvera Francisco Eduardo - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>Mat</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>IGNACIO</t>
   </si>
 </sst>
 </file>
@@ -477,19 +486,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G2">
-        <v>53.85</v>
+        <v>61.54</v>
       </c>
       <c r="H2">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -503,19 +512,19 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>52.63</v>
+        <v>57.89</v>
       </c>
       <c r="H3">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -529,19 +538,19 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4">
-        <v>64.70999999999999</v>
+        <v>70.59</v>
       </c>
       <c r="H4">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
     </row>
   </sheetData>
@@ -597,16 +606,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>56.41</v>
+      </c>
+      <c r="H2">
+        <v>8.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -620,16 +632,19 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>47.37</v>
+      </c>
+      <c r="H3">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -643,16 +658,19 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>61.76</v>
+      </c>
+      <c r="H4">
+        <v>8.199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -708,16 +726,16 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G2">
-        <v>53.85</v>
+        <v>61.54</v>
       </c>
       <c r="H2">
         <v>8.199999999999999</v>
@@ -734,19 +752,19 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>52.63</v>
+        <v>57.89</v>
       </c>
       <c r="H3">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -760,19 +778,19 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4">
-        <v>64.70999999999999</v>
+        <v>70.59</v>
       </c>
       <c r="H4">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
@@ -782,7 +800,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -815,6 +833,29 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920321</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Vargas Olvera Francisco Eduardo - Estadisticos 2020.xlsx
+++ b/docentes/Vargas Olvera Francisco Eduardo - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
   <si>
     <t>Mat</t>
   </si>
@@ -76,10 +76,19 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>TZANAHUA</t>
+  </si>
+  <si>
     <t>DE JESUS</t>
   </si>
   <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
     <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>XIMENA</t>
   </si>
   <si>
     <t>IGNACIO</t>
@@ -800,7 +809,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -835,24 +844,47 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920321</v>
+        <v>20330051920030</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920321</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>2</v>
       </c>
     </row>
